--- a/gameTb/client/table/应用配置.xlsx
+++ b/gameTb/client/table/应用配置.xlsx
@@ -440,13 +440,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="11.125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="2" customWidth="1"/>
     <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
